--- a/html/resources/aoiConditions/train1P2Block6.xlsx
+++ b/html/resources/aoiConditions/train1P2Block6.xlsx
@@ -25,25 +25,25 @@
     <t>trainingaudio/17_kotako2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/19_papipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/04_kitoti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/07_pitapi2.wav</t>
+    <t>trainingaudio/23_patoko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/16_kokapi2.wav</t>
   </si>
   <si>
     <t>pngimages/17_cracker.png</t>
   </si>
   <si>
-    <t>pngimages/19_burger.png</t>
-  </si>
-  <si>
-    <t>pngimages/04_ladder.png</t>
-  </si>
-  <si>
-    <t>pngimages/07_suitcase.png</t>
+    <t>pngimages/23_lemon.png</t>
+  </si>
+  <si>
+    <t>pngimages/11_compass.png</t>
+  </si>
+  <si>
+    <t>pngimages/16_icecream.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/aoiConditions/train1P2Block6.xlsx
+++ b/html/resources/aoiConditions/train1P2Block6.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/17_kotako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/17_cracker.png</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
-  </si>
-  <si>
-    <t>pngimages/11_compass.png</t>
-  </si>
-  <si>
-    <t>pngimages/16_icecream.png</t>
+    <t>trainingaudio/18_popata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/18_donut.png</t>
+  </si>
+  <si>
+    <t>pngimages/06_tent.png</t>
+  </si>
+  <si>
+    <t>pngimages/21_cheese.png</t>
+  </si>
+  <si>
+    <t>pngimages/27_kiwi.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/aoiConditions/train1P2Block6.xlsx
+++ b/html/resources/aoiConditions/train1P2Block6.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/18_popata2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
+    <t>trainingaudio/18_popata2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.mp3</t>
   </si>
   <si>
     <t>pngimages/18_donut.png</t>

--- a/html/resources/aoiConditions/train1P2Block6.xlsx
+++ b/html/resources/aoiConditions/train1P2Block6.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/18_popata2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.mp3</t>
+    <t>trainingaudio/18_popata2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.ogg</t>
   </si>
   <si>
     <t>pngimages/18_donut.png</t>

--- a/html/resources/aoiConditions/train1P2Block6.xlsx
+++ b/html/resources/aoiConditions/train1P2Block6.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/18_popata2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/21_papika1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.ogg</t>
+    <t>trainingaudio/18_popata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/21_papika1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.wav</t>
   </si>
   <si>
     <t>pngimages/18_donut.png</t>
